--- a/Assets/WeaponInfo.xlsx
+++ b/Assets/WeaponInfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\UDI\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\UDI\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
-    <t>WeaponID</t>
-  </si>
-  <si>
     <t>WeaponName</t>
   </si>
   <si>
@@ -156,6 +153,10 @@
   </si>
   <si>
     <t>ItemID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +505,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,16 +517,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -536,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -550,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
@@ -564,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -578,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -592,7 +593,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -606,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
@@ -620,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
@@ -634,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
@@ -648,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -662,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -676,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -690,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -704,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -718,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -732,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -746,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2">
         <v>4</v>
@@ -760,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
@@ -774,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -788,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
@@ -802,7 +803,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -816,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -830,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -844,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
@@ -858,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -872,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -886,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -900,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
@@ -914,7 +915,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -928,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
@@ -942,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -956,7 +957,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -970,7 +971,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -984,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -998,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>2</v>
@@ -1012,7 +1013,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
@@ -1026,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="2">
         <v>4</v>
@@ -1040,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -1054,7 +1055,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
@@ -1068,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -1082,7 +1083,7 @@
         <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2">
         <v>4</v>
